--- a/biology/Médecine/Ankylose/Ankylose.xlsx
+++ b/biology/Médecine/Ankylose/Ankylose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ankylose (du grec αγκυλος, tordu, de travers) est « la perte totale ou partielle du mouvement propre à une articulation »[1] ayant pour origine une blessure, une maladie ou une intervention chirurgicale volontaire.
-La rigidité peut être complète ou partielle ; elle peut provenir de l'inflammation des structures des muscles ou des tendons à l'extérieur de l'articulation (on parle de « fausse » ankylose) mais elle peut aussi provenir de l'inflammation des tissus de l'articulation elle-même (on parle de « vraie » ankylose[2]). Quand l'inflammation vient à bout de l'articulation entre les os de sorte qu'ils soient reliés entre eux par des excrétions osseuses ou qu'ils fusionnent, on parle d'ankylose « osseuse » ou « complète »[3]. L'excision d'une épaule ou d'un coude complètement ankylosé peut redonner la liberté de mouvement et l'usage du membre.
-Le terme « ankylose » est également utilisé pour les os, quand des os, à l'origine distincts, fusionnent ou deviennent si liés qu'aucun mouvement entre eux n'est possible[4]. On peut alors aussi parler d'arthrodèse quand le blocage est chirurgical.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ankylose (du grec αγκυλος, tordu, de travers) est « la perte totale ou partielle du mouvement propre à une articulation » ayant pour origine une blessure, une maladie ou une intervention chirurgicale volontaire.
+La rigidité peut être complète ou partielle ; elle peut provenir de l'inflammation des structures des muscles ou des tendons à l'extérieur de l'articulation (on parle de « fausse » ankylose) mais elle peut aussi provenir de l'inflammation des tissus de l'articulation elle-même (on parle de « vraie » ankylose). Quand l'inflammation vient à bout de l'articulation entre les os de sorte qu'ils soient reliés entre eux par des excrétions osseuses ou qu'ils fusionnent, on parle d'ankylose « osseuse » ou « complète ». L'excision d'une épaule ou d'un coude complètement ankylosé peut redonner la liberté de mouvement et l'usage du membre.
+Le terme « ankylose » est également utilisé pour les os, quand des os, à l'origine distincts, fusionnent ou deviennent si liés qu'aucun mouvement entre eux n'est possible. On peut alors aussi parler d'arthrodèse quand le blocage est chirurgical.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La polyarthrite rhumatoïde est une cause fréquente d'ankylose[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La polyarthrite rhumatoïde est une cause fréquente d'ankylose.
 </t>
         </is>
       </c>
